--- a/data/trans_orig/CoPsoQ-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>161839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>143557</v>
+        <v>145667</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>177165</v>
+        <v>177308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5902338605863796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5235586222715195</v>
+        <v>0.5312549601780517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6461283499423949</v>
+        <v>0.6466479761298559</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -764,19 +764,19 @@
         <v>127086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>112094</v>
+        <v>111867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142217</v>
+        <v>141854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5822374998072583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5135547240537797</v>
+        <v>0.5125138806211721</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6515599628264578</v>
+        <v>0.6498993281674763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>270</v>
@@ -785,19 +785,19 @@
         <v>288925</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>267617</v>
+        <v>265564</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312529</v>
+        <v>311657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5866897066213076</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5434226869919089</v>
+        <v>0.5392540740476492</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6346198658264567</v>
+        <v>0.6328487890181589</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>51358</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38783</v>
+        <v>38498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65994</v>
+        <v>65972</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1873055367670148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1414427771015454</v>
+        <v>0.1404026491760874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2406820954229404</v>
+        <v>0.2406036409771268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -835,19 +835,19 @@
         <v>45849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33991</v>
+        <v>35054</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59485</v>
+        <v>60497</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2100548950679971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.155729203340853</v>
+        <v>0.160600206389936</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.272526910767513</v>
+        <v>0.2771649791363366</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -856,19 +856,19 @@
         <v>97207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78070</v>
+        <v>80511</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117055</v>
+        <v>116631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1973885270987904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1585289503421704</v>
+        <v>0.1634846533731257</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2376923767642753</v>
+        <v>0.2368304249252365</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>60998</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47883</v>
+        <v>47354</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77742</v>
+        <v>76197</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2224606026466056</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1746300295601579</v>
+        <v>0.1727020435874739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2835288083681703</v>
+        <v>0.2778927885296327</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>42</v>
@@ -909,16 +909,16 @@
         <v>33380</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58336</v>
+        <v>58270</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2077076051247447</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1529271725986079</v>
+        <v>0.1529289916484044</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2672655898967728</v>
+        <v>0.2669638889706136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -927,19 +927,19 @@
         <v>106334</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88758</v>
+        <v>88936</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>127044</v>
+        <v>126735</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.215921766279902</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1802311211557726</v>
+        <v>0.1805934228439834</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.257974632355666</v>
+        <v>0.2573478530546757</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>218446</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>198146</v>
+        <v>198704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>236842</v>
+        <v>238035</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5838246908972797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5295703397145104</v>
+        <v>0.531060969616446</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6329899405555918</v>
+        <v>0.6361770971392424</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>128</v>
@@ -1052,19 +1052,19 @@
         <v>138907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121702</v>
+        <v>123210</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156960</v>
+        <v>156621</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.551128839425563</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.48286686420585</v>
+        <v>0.4888509881472333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6227599085795885</v>
+        <v>0.6214143320804785</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>336</v>
@@ -1073,19 +1073,19 @@
         <v>357353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>328734</v>
+        <v>331323</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>382120</v>
+        <v>381426</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5706649677410518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5249635349742547</v>
+        <v>0.5290973559961371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6102161065726095</v>
+        <v>0.6091086078423544</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>65491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52157</v>
+        <v>51046</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>81977</v>
+        <v>81520</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1750324134299527</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1393959860259874</v>
+        <v>0.1364259557510611</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2190929491301905</v>
+        <v>0.2178724250531056</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -1123,19 +1123,19 @@
         <v>49636</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37525</v>
+        <v>37470</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64538</v>
+        <v>62704</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1969387693493504</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1488846939282913</v>
+        <v>0.1486686839476022</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2560638210198442</v>
+        <v>0.2487861596497197</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>109</v>
@@ -1144,19 +1144,19 @@
         <v>115127</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>96234</v>
+        <v>97496</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>135900</v>
+        <v>136329</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1838494824550687</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1536782197334396</v>
+        <v>0.1556932329873444</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2170216446280564</v>
+        <v>0.217706628352502</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>90227</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75245</v>
+        <v>74246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>108421</v>
+        <v>107963</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2411428956727676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2011029395443396</v>
+        <v>0.198432822739698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2897696445907143</v>
+        <v>0.2885446577446729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -1194,19 +1194,19 @@
         <v>63497</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49912</v>
+        <v>50480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79956</v>
+        <v>78773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2519323912250866</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1980305242353108</v>
+        <v>0.2002859251027719</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3172352573931613</v>
+        <v>0.3125430084494873</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -1215,19 +1215,19 @@
         <v>153724</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132099</v>
+        <v>132320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178057</v>
+        <v>176275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2454855498038795</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2109525860323425</v>
+        <v>0.2113055237078124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2843426876679789</v>
+        <v>0.2814983341890877</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>269737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>247212</v>
+        <v>248286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>290737</v>
+        <v>291324</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.600060177568365</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5499497822221936</v>
+        <v>0.5523388824720865</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6467773418961138</v>
+        <v>0.6480827176088941</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>137</v>
@@ -1340,19 +1340,19 @@
         <v>144811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>126365</v>
+        <v>128746</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161708</v>
+        <v>161165</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5259368127048141</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4589403418619848</v>
+        <v>0.4675893712560484</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5873029158809502</v>
+        <v>0.5853297390374467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>395</v>
@@ -1361,19 +1361,19 @@
         <v>414549</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>386578</v>
+        <v>385153</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>440609</v>
+        <v>440610</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5719040859508309</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5333167948577886</v>
+        <v>0.5313505018103121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6078558752990616</v>
+        <v>0.6078582375120388</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>90031</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72640</v>
+        <v>74264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108879</v>
+        <v>108435</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2002839103303075</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1615964379370362</v>
+        <v>0.1652095363078409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2422125826329817</v>
+        <v>0.2412259756457339</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -1411,19 +1411,19 @@
         <v>64770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51074</v>
+        <v>50562</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80305</v>
+        <v>79894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2352371020269842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1854930659561708</v>
+        <v>0.1836356209682412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2916558031206098</v>
+        <v>0.2901657281945984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1432,19 +1432,19 @@
         <v>154801</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>132113</v>
+        <v>132282</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178466</v>
+        <v>179390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2135610365043353</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1822608240470262</v>
+        <v>0.1824943000254978</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2462084664368392</v>
+        <v>0.2474831645043974</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>89749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74085</v>
+        <v>73220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111126</v>
+        <v>110271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1996559121013274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1648093437257556</v>
+        <v>0.1628848855087293</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2472127730382023</v>
+        <v>0.2453105922432743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -1482,19 +1482,19 @@
         <v>65758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51816</v>
+        <v>52325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79721</v>
+        <v>80801</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2388260852682018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1881901309058381</v>
+        <v>0.1900380677216088</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2895383884960719</v>
+        <v>0.2934582286068928</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -1503,19 +1503,19 @@
         <v>155507</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>133420</v>
+        <v>132375</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>180116</v>
+        <v>177890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2145348775448339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1840636331504676</v>
+        <v>0.182622577935164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2484853411278996</v>
+        <v>0.2454139464028375</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>158649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141560</v>
+        <v>141182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>176887</v>
+        <v>176537</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.551434601759365</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4920354148062015</v>
+        <v>0.4907230703592865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6148261466533339</v>
+        <v>0.6136088271950483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -1628,19 +1628,19 @@
         <v>90321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75679</v>
+        <v>76321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104557</v>
+        <v>105064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5064560716252039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4243520348939799</v>
+        <v>0.4279529910293175</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5862806381393768</v>
+        <v>0.5891211697126427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>229</v>
@@ -1649,19 +1649,19 @@
         <v>248971</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>225149</v>
+        <v>225938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>271596</v>
+        <v>273201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5342227360662746</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4831067952038086</v>
+        <v>0.4848007373646382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5827694560155777</v>
+        <v>0.5862132893762778</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>59413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46300</v>
+        <v>46087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74708</v>
+        <v>76467</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2065071392417757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1609298399245193</v>
+        <v>0.1601900935744628</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2596703234696506</v>
+        <v>0.2657854231241107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -1699,19 +1699,19 @@
         <v>44486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33189</v>
+        <v>33627</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57220</v>
+        <v>57111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2494462680768782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1860980863468371</v>
+        <v>0.1885572679882339</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3208467814267878</v>
+        <v>0.3202374847081736</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -1720,19 +1720,19 @@
         <v>103899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>85075</v>
+        <v>86512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124051</v>
+        <v>126187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2229385903426371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1825466922511902</v>
+        <v>0.1856313918004969</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2661777110706268</v>
+        <v>0.2707613042085723</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>69641</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55432</v>
+        <v>53882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>86625</v>
+        <v>86953</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2420582589988594</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1926716049798144</v>
+        <v>0.1872824884072661</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3010917101384285</v>
+        <v>0.3022306912266655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1770,19 +1770,19 @@
         <v>43532</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31719</v>
+        <v>31965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57229</v>
+        <v>56922</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2440976602979179</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1778558777609552</v>
+        <v>0.1792364642962907</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3209007993624043</v>
+        <v>0.3191786617100321</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>99</v>
@@ -1791,19 +1791,19 @@
         <v>113174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>94759</v>
+        <v>92680</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>135512</v>
+        <v>134086</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2428386735910883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2033264647359255</v>
+        <v>0.1988658875761472</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2907707388458213</v>
+        <v>0.2877113307328805</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>808672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>771325</v>
+        <v>769081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>849407</v>
+        <v>846100</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5836346947149419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.556680974943164</v>
+        <v>0.5550609879770396</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6130342564783781</v>
+        <v>0.6106473861902959</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>463</v>
@@ -1916,19 +1916,19 @@
         <v>501125</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>467794</v>
+        <v>467919</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>530780</v>
+        <v>530621</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.542348245462789</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5062749526936497</v>
+        <v>0.5064098242876337</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5744427376751577</v>
+        <v>0.574270626765213</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1230</v>
@@ -1937,19 +1937,19 @@
         <v>1309797</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1259521</v>
+        <v>1262796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1353999</v>
+        <v>1358309</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5671171901130058</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5453483134890535</v>
+        <v>0.5467666326652948</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.586255810299666</v>
+        <v>0.5881217781328073</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>266293</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>236571</v>
+        <v>235375</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>297206</v>
+        <v>297146</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.192188840917772</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1707380298141467</v>
+        <v>0.1698749106359674</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2144996788698549</v>
+        <v>0.2144558767191118</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>188</v>
@@ -1987,19 +1987,19 @@
         <v>204742</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>177925</v>
+        <v>176754</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>230829</v>
+        <v>229660</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.221584155299611</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1925616193513598</v>
+        <v>0.1912936241539718</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2498166717726411</v>
+        <v>0.2485516684629532</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>437</v>
@@ -2008,19 +2008,19 @@
         <v>471035</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>431731</v>
+        <v>432907</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>512340</v>
+        <v>511128</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2039490491549109</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1869313858438108</v>
+        <v>0.1874402420433042</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2218335452771694</v>
+        <v>0.2213084580113582</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>310614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>276336</v>
+        <v>277127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>342527</v>
+        <v>344239</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.224176464367286</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1994374324853402</v>
+        <v>0.2000078793844383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2472089074109037</v>
+        <v>0.2484442082667467</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>201</v>
@@ -2058,19 +2058,19 @@
         <v>218125</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>192355</v>
+        <v>193277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>246382</v>
+        <v>246110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2360675992376001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2081785427061892</v>
+        <v>0.2091756612190476</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2666491342984649</v>
+        <v>0.2663547161501861</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>487</v>
@@ -2079,19 +2079,19 @@
         <v>528739</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>489523</v>
+        <v>486705</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>576327</v>
+        <v>565751</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2289337607320833</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2119538726402603</v>
+        <v>0.2107340799548676</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2495387524725075</v>
+        <v>0.244959216675018</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>170121</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>151926</v>
+        <v>152323</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187350</v>
+        <v>187882</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5794742506560425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5174976457120024</v>
+        <v>0.5188504498553379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6381592061001703</v>
+        <v>0.6399725138602537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -2444,19 +2444,19 @@
         <v>155238</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137522</v>
+        <v>136837</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171199</v>
+        <v>171690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5599598887896792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4960546968103746</v>
+        <v>0.4935864492800899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6175322122272449</v>
+        <v>0.6193039836041992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>307</v>
@@ -2465,19 +2465,19 @@
         <v>325359</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>300919</v>
+        <v>298666</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>348824</v>
+        <v>349240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5699965038265744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5271796063142082</v>
+        <v>0.523232933642154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6111043562233947</v>
+        <v>0.6118329648439734</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>66900</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53310</v>
+        <v>52567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>83298</v>
+        <v>82319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2278787941382434</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1815868607709878</v>
+        <v>0.1790566911097785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2837333954404502</v>
+        <v>0.2803995885742125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -2515,19 +2515,19 @@
         <v>55156</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>42449</v>
+        <v>43253</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69163</v>
+        <v>68029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1989516518025989</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1531176231857055</v>
+        <v>0.156018680730095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2494794416425067</v>
+        <v>0.2453858601608404</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>116</v>
@@ -2536,19 +2536,19 @@
         <v>122056</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>102686</v>
+        <v>102499</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142185</v>
+        <v>145284</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2138294425153343</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1798956444730258</v>
+        <v>0.1795675475342107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2490934478025966</v>
+        <v>0.2545231431128884</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>56557</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44356</v>
+        <v>45579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72610</v>
+        <v>73246</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1926469552057141</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1510873863590632</v>
+        <v>0.1552539130114428</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2473273389959735</v>
+        <v>0.249493430063318</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -2586,19 +2586,19 @@
         <v>66837</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53950</v>
+        <v>53487</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>82453</v>
+        <v>82999</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2410884594077219</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1946015223170195</v>
+        <v>0.1929338671307922</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2974177335071436</v>
+        <v>0.2993866105534755</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -2607,19 +2607,19 @@
         <v>123394</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>102806</v>
+        <v>102435</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145226</v>
+        <v>144348</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2161740536580913</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1801063221601272</v>
+        <v>0.1794549620681803</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.254421351250945</v>
+        <v>0.2528825022331014</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>234898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214223</v>
+        <v>215633</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>252840</v>
+        <v>253983</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6015718763967389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5486237257044161</v>
+        <v>0.5522330237480667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6475206561549943</v>
+        <v>0.6504484137482816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -2732,19 +2732,19 @@
         <v>146455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>130211</v>
+        <v>127590</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>163347</v>
+        <v>161069</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5423187507657135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.482168766927249</v>
+        <v>0.4724625049554939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6048684549583166</v>
+        <v>0.596433632115475</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>365</v>
@@ -2753,19 +2753,19 @@
         <v>381353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>356972</v>
+        <v>356491</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>407268</v>
+        <v>407391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5773465748925878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5404344458084793</v>
+        <v>0.5397068203368798</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6165804940834079</v>
+        <v>0.6167658991929937</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>90662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75573</v>
+        <v>74594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>108455</v>
+        <v>108931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2321844115409915</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1935417317328041</v>
+        <v>0.1910333363092038</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.277751120115779</v>
+        <v>0.2789716863804176</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>62</v>
@@ -2803,19 +2803,19 @@
         <v>64596</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50957</v>
+        <v>50596</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80331</v>
+        <v>78860</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2391976374794742</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1886931689684195</v>
+        <v>0.1873547761886424</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2974628682013673</v>
+        <v>0.2920180395578126</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>148</v>
@@ -2824,19 +2824,19 @@
         <v>155258</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>133995</v>
+        <v>134800</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>175602</v>
+        <v>180842</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2350517288523928</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.202860326490989</v>
+        <v>0.2040798654158639</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2658510395001253</v>
+        <v>0.2737844133751418</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>64914</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50463</v>
+        <v>51167</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78973</v>
+        <v>79732</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1662437120622696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1292364238911121</v>
+        <v>0.1310386588597141</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2022485737478581</v>
+        <v>0.2041936921915726</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>58</v>
@@ -2874,19 +2874,19 @@
         <v>59002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45756</v>
+        <v>46123</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73592</v>
+        <v>73103</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2184836117548123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1694316669148026</v>
+        <v>0.1707914962407798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2725091564128679</v>
+        <v>0.270697516694734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>121</v>
@@ -2895,19 +2895,19 @@
         <v>123916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104568</v>
+        <v>107170</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145343</v>
+        <v>147566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1876016962550194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1583092525328332</v>
+        <v>0.1622499646415465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.220040673601917</v>
+        <v>0.2234069509950184</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>244475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>223930</v>
+        <v>220354</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266256</v>
+        <v>265632</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5359089944016341</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4908712911535744</v>
+        <v>0.4830340554761119</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5836549433281087</v>
+        <v>0.5822860296351066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>181</v>
@@ -3020,19 +3020,19 @@
         <v>180396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>164934</v>
+        <v>163101</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>195957</v>
+        <v>196185</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6206955968748525</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5674956235186756</v>
+        <v>0.5611896160075887</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6742387550533219</v>
+        <v>0.675021270908398</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>412</v>
@@ -3041,19 +3041,19 @@
         <v>424872</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>397374</v>
+        <v>397341</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>452076</v>
+        <v>453880</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.568904693785113</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5320858562686934</v>
+        <v>0.5320411550095788</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6053313971778858</v>
+        <v>0.6077470220834873</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>96095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79567</v>
+        <v>79535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115752</v>
+        <v>114742</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2106467756347376</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1744174628588607</v>
+        <v>0.174347134950206</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2537381337839658</v>
+        <v>0.2515228421625791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -3091,19 +3091,19 @@
         <v>60631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48318</v>
+        <v>48451</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75864</v>
+        <v>75412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2086173164637764</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1662491226148242</v>
+        <v>0.1667073722220911</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2610270099687368</v>
+        <v>0.2594744836538234</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -3112,19 +3112,19 @@
         <v>156726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134463</v>
+        <v>133621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>181207</v>
+        <v>179695</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2098569878290848</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1800465917649057</v>
+        <v>0.1789192094162218</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2426368105781554</v>
+        <v>0.2406118089014707</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>115618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98064</v>
+        <v>96167</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134029</v>
+        <v>135256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2534442299636283</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2149635905748591</v>
+        <v>0.2108046465636692</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2938018099581112</v>
+        <v>0.296490815629743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -3162,19 +3162,19 @@
         <v>49608</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38078</v>
+        <v>37812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62496</v>
+        <v>61552</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1706870866613711</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1310175535606852</v>
+        <v>0.1300998557283259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2150335998108626</v>
+        <v>0.2117859353429128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>160</v>
@@ -3183,19 +3183,19 @@
         <v>165226</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>143092</v>
+        <v>144039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>187413</v>
+        <v>190443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2212383183858022</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1916000953119784</v>
+        <v>0.1928690536566529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2509465053191227</v>
+        <v>0.2550037789656369</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>127489</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>109302</v>
+        <v>111004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142971</v>
+        <v>145958</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4633448924256217</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3972459266284603</v>
+        <v>0.4034330909455504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5196138046317708</v>
+        <v>0.5304683824160525</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -3308,19 +3308,19 @@
         <v>87165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72895</v>
+        <v>72602</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101611</v>
+        <v>102148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4491606733299904</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3756253272882161</v>
+        <v>0.374114792362146</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5235988568033675</v>
+        <v>0.5263668493003497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>198</v>
@@ -3329,19 +3329,19 @@
         <v>214654</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193026</v>
+        <v>193339</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>238592</v>
+        <v>237018</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4574783963451333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4113831132810508</v>
+        <v>0.4120497485478686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5084958963289561</v>
+        <v>0.5051397835506853</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>66998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52786</v>
+        <v>52188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82968</v>
+        <v>82268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2434984118147751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1918466647447737</v>
+        <v>0.1896731709356997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3015381454847466</v>
+        <v>0.298995094607734</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -3379,19 +3379,19 @@
         <v>44768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33680</v>
+        <v>32591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58074</v>
+        <v>57691</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2306880687604635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1735514143744881</v>
+        <v>0.167938752490224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2992508136942102</v>
+        <v>0.2972789365212862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>101</v>
@@ -3400,19 +3400,19 @@
         <v>111766</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>93145</v>
+        <v>92663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133142</v>
+        <v>132870</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2382001414756644</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1985128014903605</v>
+        <v>0.1974857355691525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.283756316118866</v>
+        <v>0.2831774961033438</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>80662</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>64913</v>
+        <v>64073</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>99230</v>
+        <v>96885</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2931566957596031</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2359190972841261</v>
+        <v>0.2328671058645442</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3606408380849424</v>
+        <v>0.3521190988937032</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>60</v>
@@ -3450,19 +3450,19 @@
         <v>62130</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48565</v>
+        <v>49412</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74495</v>
+        <v>75459</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3201512579095461</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.250254664051146</v>
+        <v>0.2546170851534549</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3838696711211548</v>
+        <v>0.38883947800587</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -3471,19 +3471,19 @@
         <v>142791</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119930</v>
+        <v>122161</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>163520</v>
+        <v>163862</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3043214621792023</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2555979496526453</v>
+        <v>0.2603530881623575</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3485001871756391</v>
+        <v>0.3492276259766441</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>776984</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>738051</v>
+        <v>739746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>819784</v>
+        <v>815837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.54895381002552</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5214468667735842</v>
+        <v>0.5226445494930891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5791929021053798</v>
+        <v>0.5764047029543642</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>556</v>
@@ -3596,19 +3596,19 @@
         <v>569254</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1282</v>
@@ -3617,19 +3617,19 @@
         <v>1346238</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1297747</v>
+        <v>1292647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1397416</v>
+        <v>1396134</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5500749873388645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5302612943408329</v>
+        <v>0.5281775044589333</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5709862575788968</v>
+        <v>0.5704625987157159</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>320655</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>290664</v>
+        <v>290496</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>356538</v>
+        <v>354344</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.226549062953443</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2053599384820468</v>
+        <v>0.2052408640826302</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.251900944004502</v>
+        <v>0.250350739835847</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>219</v>
@@ -3667,19 +3667,19 @@
         <v>225151</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>198032</v>
+        <v>198252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>253423</v>
+        <v>252087</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2181734870270256</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1918948029945922</v>
+        <v>0.1921084294846432</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2455694577608363</v>
+        <v>0.2442745653227865</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>511</v>
@@ -3688,19 +3688,19 @@
         <v>545806</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>507260</v>
+        <v>506272</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>593703</v>
+        <v>585880</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2230173394069288</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2072673006016318</v>
+        <v>0.2068634246444431</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2425881180606554</v>
+        <v>0.2393913417032808</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>317751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>289807</v>
+        <v>288091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>352778</v>
+        <v>351592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2244971270210369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2047543730839085</v>
+        <v>0.2035416589069008</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.249244357964439</v>
+        <v>0.2484065610848259</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>233</v>
@@ -3738,19 +3738,19 @@
         <v>237576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>531</v>
@@ -3759,19 +3759,19 @@
         <v>555327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>514644</v>
+        <v>513160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>597148</v>
+        <v>599691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2269076732542066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2102843382770123</v>
+        <v>0.2096777759927553</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2439955193499861</v>
+        <v>0.2450345776228723</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>19322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10869</v>
+        <v>11366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26691</v>
+        <v>27318</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5254758709494709</v>
+        <v>0.5254758709494708</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2955917678761443</v>
+        <v>0.3091054282050998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7258997965020584</v>
+        <v>0.7429472792315315</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4124,19 +4124,19 @@
         <v>21635</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15277</v>
+        <v>15911</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27002</v>
+        <v>27866</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.558424379872436</v>
+        <v>0.5584243798724359</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3943085185198518</v>
+        <v>0.4106924550952293</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6969522205368293</v>
+        <v>0.7192444498740012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4145,19 +4145,19 @@
         <v>40957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30621</v>
+        <v>30461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50223</v>
+        <v>49852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5423805288824435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4055016134879528</v>
+        <v>0.4033919638693844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6650873635830915</v>
+        <v>0.6601766485295484</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>4610</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1114</v>
+        <v>1176</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10557</v>
+        <v>10959</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1253779779851036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0302941865741997</v>
+        <v>0.03197802419224761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2871087119670173</v>
+        <v>0.2980394861501193</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4195,7 +4195,7 @@
         <v>6490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2628</v>
+        <v>3013</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>12798</v>
@@ -4204,10 +4204,10 @@
         <v>0.1675163934415109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06782410353765142</v>
+        <v>0.07777568943386631</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3303254554674245</v>
+        <v>0.3303360595289247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -4216,19 +4216,19 @@
         <v>11100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6035</v>
+        <v>5308</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19881</v>
+        <v>17793</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1469976361248247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.079918156464219</v>
+        <v>0.07028745427917364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.263279003733949</v>
+        <v>0.2356269341629338</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>12838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6204</v>
+        <v>5391</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22660</v>
+        <v>22183</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3491461510654256</v>
+        <v>0.3491461510654255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1687252825771278</v>
+        <v>0.1466217138977401</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6162507143275275</v>
+        <v>0.6032865845450259</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4266,19 +4266,19 @@
         <v>10618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5825</v>
+        <v>5608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17283</v>
+        <v>16721</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2740592266860531</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1503605173259829</v>
+        <v>0.1447397687239859</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4460918295510788</v>
+        <v>0.4315913827862715</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -4287,19 +4287,19 @@
         <v>23456</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14938</v>
+        <v>14916</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35761</v>
+        <v>35232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3106218349927317</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.197824986405377</v>
+        <v>0.1975286192863306</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4735774241338294</v>
+        <v>0.4665627514897569</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>59104</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46066</v>
+        <v>45597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>71182</v>
+        <v>70588</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5058429301526673</v>
+        <v>0.5058429301526672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3942585705300621</v>
+        <v>0.3902420685080162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6092174560275375</v>
+        <v>0.6041340137755975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -4412,19 +4412,19 @@
         <v>55684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47194</v>
+        <v>46937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63972</v>
+        <v>64357</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5883646460687365</v>
+        <v>0.5883646460687364</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4986530575621194</v>
+        <v>0.495945463737372</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.675937296505137</v>
+        <v>0.6800080306479636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -4433,19 +4433,19 @@
         <v>114787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>99266</v>
+        <v>99885</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129944</v>
+        <v>131486</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5427725189014034</v>
+        <v>0.5427725189014033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.469380763985329</v>
+        <v>0.4723067785304218</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6144440500274835</v>
+        <v>0.6217322593022975</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>36616</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25750</v>
+        <v>25325</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49335</v>
+        <v>49328</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3133840310271184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2203871754258158</v>
+        <v>0.216741715233603</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4222365551319689</v>
+        <v>0.4221743267948938</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -4483,19 +4483,19 @@
         <v>24310</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17168</v>
+        <v>17418</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32717</v>
+        <v>32980</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2568635170649149</v>
+        <v>0.2568635170649148</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1814005103036937</v>
+        <v>0.184037981459452</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3456934910836971</v>
+        <v>0.3484686290748485</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>57</v>
@@ -4504,19 +4504,19 @@
         <v>60926</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47013</v>
+        <v>47386</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75250</v>
+        <v>75942</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2880903333219677</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2222998497972699</v>
+        <v>0.2240634366934994</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3558194058497912</v>
+        <v>0.3590912136097317</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>21122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12866</v>
+        <v>13074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32582</v>
+        <v>33134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1807730388202143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1101136274705833</v>
+        <v>0.111893716144247</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2788575329814279</v>
+        <v>0.2835759372841384</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -4554,19 +4554,19 @@
         <v>14648</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8633</v>
+        <v>8552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22560</v>
+        <v>21659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1547718368663487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09122093855318315</v>
+        <v>0.09035743154784921</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2383685224840321</v>
+        <v>0.228852637463718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -4575,19 +4575,19 @@
         <v>35770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25636</v>
+        <v>24846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49787</v>
+        <v>48789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1691371477766289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.12122219622454</v>
+        <v>0.1174859405860312</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.235418553614775</v>
+        <v>0.2306986240377309</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>48871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37752</v>
+        <v>36770</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61012</v>
+        <v>61552</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.416543170926249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.321775967983192</v>
+        <v>0.313402152190666</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5200279885084249</v>
+        <v>0.5246250558986226</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -4700,19 +4700,19 @@
         <v>58062</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48823</v>
+        <v>48820</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69007</v>
+        <v>68642</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4842093259095247</v>
+        <v>0.4842093259095246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4071632196572275</v>
+        <v>0.4071317079019289</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5754839574232292</v>
+        <v>0.5724404430089246</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>115</v>
@@ -4721,19 +4721,19 @@
         <v>106933</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>91032</v>
+        <v>91174</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123859</v>
+        <v>123905</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4507450972581009</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3837187715017235</v>
+        <v>0.3843166415676051</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5220922354185831</v>
+        <v>0.5222850559182693</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>32842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22921</v>
+        <v>22904</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44600</v>
+        <v>44591</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2799226310422561</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1953611076287055</v>
+        <v>0.1952160927010128</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3801424771230526</v>
+        <v>0.3800673875115884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4771,19 +4771,19 @@
         <v>26288</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19026</v>
+        <v>19086</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34955</v>
+        <v>34873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2192299624330259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1586706403699805</v>
+        <v>0.1591667264178769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2915086087286899</v>
+        <v>0.2908246415194219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -4792,19 +4792,19 @@
         <v>59130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45866</v>
+        <v>45870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72903</v>
+        <v>73773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2492454604365162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1933331827064478</v>
+        <v>0.1933517863386786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.307302383172663</v>
+        <v>0.3109678587680665</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>35612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24152</v>
+        <v>25489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45719</v>
+        <v>46343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3035341980314947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2058570854099689</v>
+        <v>0.2172510234443582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3896769185143478</v>
+        <v>0.3950010168572564</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -4842,19 +4842,19 @@
         <v>35561</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27036</v>
+        <v>26898</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45963</v>
+        <v>45199</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2965607116574494</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2254688861904246</v>
+        <v>0.2243193886041166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3833063417295562</v>
+        <v>0.3769359509869634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -4863,19 +4863,19 @@
         <v>71173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>56984</v>
+        <v>57065</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>87143</v>
+        <v>86066</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3000094423053829</v>
+        <v>0.300009442305383</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2402003873263968</v>
+        <v>0.2405414251907149</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.367324480863243</v>
+        <v>0.3627844412264859</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>60373</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47512</v>
+        <v>46276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77615</v>
+        <v>77513</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3010134534696304</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2368910175688199</v>
+        <v>0.2307283380895418</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3869828881018728</v>
+        <v>0.3864755688815143</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -4988,19 +4988,19 @@
         <v>40917</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31547</v>
+        <v>31823</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50861</v>
+        <v>51045</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3188668376458099</v>
+        <v>0.3188668376458098</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2458474612190147</v>
+        <v>0.2479980302062406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3963574469187517</v>
+        <v>0.3977927123115328</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>102</v>
@@ -5009,19 +5009,19 @@
         <v>101290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83752</v>
+        <v>83828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>119865</v>
+        <v>119860</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3079792772018626</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2546544276753622</v>
+        <v>0.254885695005196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3644583099673339</v>
+        <v>0.3644433378606045</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>56238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42449</v>
+        <v>42835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>71659</v>
+        <v>72180</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2803994739623679</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2116475396527317</v>
+        <v>0.2135741528084515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3572839712338075</v>
+        <v>0.3598833804491689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5059,19 +5059,19 @@
         <v>34584</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26092</v>
+        <v>25992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44377</v>
+        <v>43584</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2695154283748815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2033329842198184</v>
+        <v>0.2025518806418045</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3458304110756757</v>
+        <v>0.3396448504354611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -5080,19 +5080,19 @@
         <v>90823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76157</v>
+        <v>72841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107771</v>
+        <v>108067</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2761528648989072</v>
+        <v>0.2761528648989073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2315610111358942</v>
+        <v>0.221478352890048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3276850920005006</v>
+        <v>0.3285856579590768</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>83954</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68361</v>
+        <v>67537</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>98889</v>
+        <v>100291</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4185870725680017</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3408413812965514</v>
+        <v>0.33673330854577</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4930538204285634</v>
+        <v>0.5000436007347731</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>69</v>
@@ -5130,19 +5130,19 @@
         <v>52819</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43036</v>
+        <v>42565</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63745</v>
+        <v>62836</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4116177339793087</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3353782626527219</v>
+        <v>0.3317059840215252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4967617486446952</v>
+        <v>0.4896810991467587</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>138</v>
@@ -5151,19 +5151,19 @@
         <v>136773</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>119573</v>
+        <v>119552</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>156537</v>
+        <v>157653</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4158678578992303</v>
+        <v>0.4158678578992302</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3635693635399925</v>
+        <v>0.3635055249839288</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4759597963270039</v>
+        <v>0.479355361977741</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>187669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164716</v>
+        <v>163406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>212881</v>
+        <v>212609</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3980240222229611</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.349342928584767</v>
+        <v>0.3465645850014314</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4514953517356007</v>
+        <v>0.4509189416195176</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -5276,19 +5276,19 @@
         <v>176298</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>158834</v>
+        <v>159418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193385</v>
+        <v>194354</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4619772473007596</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4162136000208582</v>
+        <v>0.4177425253201936</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5067521725257589</v>
+        <v>0.5092904891420565</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>377</v>
@@ -5297,19 +5297,19 @@
         <v>363967</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>333371</v>
+        <v>333089</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394144</v>
+        <v>392652</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4266315623599481</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3907675473408239</v>
+        <v>0.3904373303794523</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4620039205293465</v>
+        <v>0.4602546191381057</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>130307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>109272</v>
+        <v>110498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>154491</v>
+        <v>155039</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2763652344356261</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.23175197082832</v>
+        <v>0.2343535467083843</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3276563866636624</v>
+        <v>0.3288189867032732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>124</v>
@@ -5347,19 +5347,19 @@
         <v>91673</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77190</v>
+        <v>77088</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107200</v>
+        <v>107520</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2402217827165915</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2022713512043101</v>
+        <v>0.2020032870631378</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2809101399414012</v>
+        <v>0.2817472301852116</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>233</v>
@@ -5368,19 +5368,19 @@
         <v>221979</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>192736</v>
+        <v>196276</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>249791</v>
+        <v>247613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2601975549404369</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2259199204554277</v>
+        <v>0.2300695507175697</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2927980625124247</v>
+        <v>0.2902446038006757</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>153526</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>128491</v>
+        <v>131738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177457</v>
+        <v>179531</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3256107433414128</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2725145020372557</v>
+        <v>0.2793997009022144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3763650563047719</v>
+        <v>0.3807644583613475</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -5418,19 +5418,19 @@
         <v>113646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96966</v>
+        <v>98766</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130370</v>
+        <v>131069</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.297800969982649</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2540913484151383</v>
+        <v>0.258809707660189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3416253848432236</v>
+        <v>0.3434576366427008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -5439,19 +5439,19 @@
         <v>267172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>240070</v>
+        <v>242147</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>296886</v>
+        <v>300140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3131708826996149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2814033247566074</v>
+        <v>0.283837930302817</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3480006335338797</v>
+        <v>0.3518154223893687</v>
       </c>
     </row>
     <row r="23">
